--- a/PET_flow/Allcountries_export_WITS.xlsx
+++ b/PET_flow/Allcountries_export_WITS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9cc742df941f8a6/Bureau/Blue Bite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9cc742df941f8a6/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{213C75EB-3E7E-491D-88F7-32FBB255E493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A8299C-B4D1-4F33-94AE-03739AA77FDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94236F31-D5F5-4F93-928B-2AF8A5416D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="1590" windowWidth="13490" windowHeight="11190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3350" windowWidth="13490" windowHeight="11190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
